--- a/编码规则.xlsx
+++ b/编码规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maekeour\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E756245C-2CE4-46C0-BE57-509B99C287D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3F8CAA-9D34-48B3-8EAB-DD18FA71F4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="15400" windowWidth="16800" windowHeight="9760" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>编码规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>某一项不填写时置空或填写null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道,1G,150,null,1;辙叉,1,上撇,1G,2G,1/3,null;轨道,2G,180,1,null;道岔,1/3,撇形,1,3;辙叉,3,下撇,null,3G,null,1/3;轨道,3G,50,3,null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,16 +191,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -512,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D4D7A4-F8D2-44C0-803B-DC611F462EC5}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -527,49 +535,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -585,11 +593,11 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -603,11 +611,11 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -625,44 +633,44 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -678,8 +686,46 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
+    <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:B8"/>

--- a/编码规则.xlsx
+++ b/编码规则.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maekeour\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3F8CAA-9D34-48B3-8EAB-DD18FA71F4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39F2D6-C86E-4AAC-8163-1E29479298F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>编码规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,7 +111,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轨道,1G,150,null,1;辙叉,1,上撇,1G,2G,1/3,null;轨道,2G,180,1,null;道岔,1/3,撇形,1,3;辙叉,3,下撇,null,3G,null,1/3;轨道,3G,50,3,null</t>
+    <t>轨道,0/1G,50,null,1G;轨道,1G,150,0/1G,1G/1;轨道,1G/1,50,1G,1;辙叉,1,上撇,1G,2G,1/3,null;轨道,1/2G,50,1,2G;轨道,2G,280,1/2G,2G/0;轨道,2G/0,50,2G,null;道岔,1/3,撇形,1,3;辙叉,3,下撇,null,3/3G,null,1/3;轨道,3/3G,50,3,3G;轨道,3G,150,3/3G,3G/0;轨道,3G/0,50,3G,null;调车信号机,D1,上方,1G,L;调车信号机,D2,上方,2G,R;调车信号机,D3,上方,3G,R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道,0/1DG,50,null,1DG;轨道,1DG,150,0/1DG,1DG/1;轨道,1DG/1,50,1DG,1;辙叉,1,上撇,1DG/1,1/IG,1/3,null;轨道,1/IG,150,1,IG;轨道,IG,380,1/IG,IG/2;轨道,IG/2,150,IG,2;道岔,1/3,撇形,3,1;辙叉,3,下撇,null,3/IIG,null,1/3;轨道,3/IIG,50,3,IIG;轨道,IIG,320,3/IIG,IIG/4;轨道,IIG/4,50,IIG,null;辙叉,4,下捺,IIG/4,null,null,2/4;道岔,2/4,捺形,4,2;辙叉,2,上捺,IG/2,2/2DG,2/4,null;轨道,2/2DG,50,2,null;轨道,2DG,150,2/2DG,2DG/0;轨道,2DG/0,50,2DG,null;列车调车信号机,X,上方,1DG,L;列车调车信号机,S,上方,2DG,R;调车信号机,D2,上方,IG,R;调车信号机,D1,上方,IG,L;调车信号机,D4,上方,IIG,R;调车信号机,D3,上方,IIG,L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道,1DG,50,null,1G;轨道,1G,150,1DG,1;辙叉,1,上撇,1G,2G,1/3,null;轨道,2G,280,1,7G;轨道,7G,50,2G,null;道岔,1/3,撇形,1,3;辙叉,3,下撇,4G,3G,null,1/3;轨道,3G,150,3,6G;轨道,4G,280,5G,3;轨道,5G,50,null,4G;轨道,6G,50,3G,null;列车调车信号机,X,上方,1G,L;列车信号机,S,上方,4G,L;列车调车信号机,D1,上方,3G,R;调车信号机,D2,上方,2G,R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +169,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,14 +213,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +545,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -535,16 +557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -574,10 +596,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -596,8 +618,8 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -614,8 +636,8 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -636,15 +658,15 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
@@ -654,11 +676,11 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -666,11 +688,11 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -687,43 +709,63 @@
       <c r="H10" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="A10:H10"/>

--- a/编码规则.xlsx
+++ b/编码规则.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maekeour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\CI\RailwayCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39F2D6-C86E-4AAC-8163-1E29479298F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43D8B1-A33F-4E98-833C-8E109B555F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
   </bookViews>
@@ -115,11 +115,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轨道,0/1DG,50,null,1DG;轨道,1DG,150,0/1DG,1DG/1;轨道,1DG/1,50,1DG,1;辙叉,1,上撇,1DG/1,1/IG,1/3,null;轨道,1/IG,150,1,IG;轨道,IG,380,1/IG,IG/2;轨道,IG/2,150,IG,2;道岔,1/3,撇形,3,1;辙叉,3,下撇,null,3/IIG,null,1/3;轨道,3/IIG,50,3,IIG;轨道,IIG,320,3/IIG,IIG/4;轨道,IIG/4,50,IIG,null;辙叉,4,下捺,IIG/4,null,null,2/4;道岔,2/4,捺形,4,2;辙叉,2,上捺,IG/2,2/2DG,2/4,null;轨道,2/2DG,50,2,null;轨道,2DG,150,2/2DG,2DG/0;轨道,2DG/0,50,2DG,null;列车调车信号机,X,上方,1DG,L;列车调车信号机,S,上方,2DG,R;调车信号机,D2,上方,IG,R;调车信号机,D1,上方,IG,L;调车信号机,D4,上方,IIG,R;调车信号机,D3,上方,IIG,L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轨道,1DG,50,null,1G;轨道,1G,150,1DG,1;辙叉,1,上撇,1G,2G,1/3,null;轨道,2G,280,1,7G;轨道,7G,50,2G,null;道岔,1/3,撇形,1,3;辙叉,3,下撇,4G,3G,null,1/3;轨道,3G,150,3,6G;轨道,4G,280,5G,3;轨道,5G,50,null,4G;轨道,6G,50,3G,null;列车调车信号机,X,上方,1G,L;列车信号机,S,上方,4G,L;列车调车信号机,D1,上方,3G,R;调车信号机,D2,上方,2G,R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道,0/1DG,50,null,1DG;轨道,1DG,150,0/1DG,1DG/1;轨道,1DG/1,50,1DG,1;辙叉,1,上撇,1DG/1,1/IG,1/3,null;轨道,1/IG,150,1,IG;轨道,IG,380,1/IG,IG/2;轨道,IG/2,150,IG,2;道岔,1/3,撇形,3,1;辙叉,3,下撇,null,3/IIG,null,1/3;轨道,3/IIG,50,3,IIG;轨道,IIG,450,3/IIG,IIG/4;轨道,IIG/4,50,IIG,null;辙叉,4,下捺,IIG/4,null,null,2/4;道岔,2/4,捺形,4,2;辙叉,2,上捺,IG/2,2/2DG,2/4,null;轨道,2/2DG,50,2,null;轨道,2DG,150,2/2DG,2DG/0;轨道,2DG/0,50,2DG,null;列车调车信号机,X,上方,1DG,L;列车调车信号机,S,上方,2DG,R;调车信号机,D2,上方,IG,R;调车信号机,D1,上方,IG,L;调车信号机,D4,上方,IIG,R;调车信号机,D3,上方,IIG,L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,20 +213,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +545,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -557,16 +557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -596,10 +596,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -618,8 +618,8 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -636,8 +636,8 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -658,15 +658,15 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
@@ -676,11 +676,11 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -688,93 +688,93 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/编码规则.xlsx
+++ b/编码规则.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\CI\RailwayCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maekeour\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43D8B1-A33F-4E98-833C-8E109B555F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3708204-2AF2-48AE-926C-ACFCB0B126C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>编码规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,7 +119,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轨道,0/1DG,50,null,1DG;轨道,1DG,150,0/1DG,1DG/1;轨道,1DG/1,50,1DG,1;辙叉,1,上撇,1DG/1,1/IG,1/3,null;轨道,1/IG,150,1,IG;轨道,IG,380,1/IG,IG/2;轨道,IG/2,150,IG,2;道岔,1/3,撇形,3,1;辙叉,3,下撇,null,3/IIG,null,1/3;轨道,3/IIG,50,3,IIG;轨道,IIG,450,3/IIG,IIG/4;轨道,IIG/4,50,IIG,null;辙叉,4,下捺,IIG/4,null,null,2/4;道岔,2/4,捺形,4,2;辙叉,2,上捺,IG/2,2/2DG,2/4,null;轨道,2/2DG,50,2,null;轨道,2DG,150,2/2DG,2DG/0;轨道,2DG/0,50,2DG,null;列车调车信号机,X,上方,1DG,L;列车调车信号机,S,上方,2DG,R;调车信号机,D2,上方,IG,R;调车信号机,D1,上方,IG,L;调车信号机,D4,上方,IIG,R;调车信号机,D3,上方,IIG,L</t>
+    <t>轨道,0/1DG,50,null,1DG;轨道,1DG,150,0/1DG,1DG/1;轨道,1DG/1,50,1DG,1;辙叉,1,上撇,1DG/1,1/IG,1/3,null;轨道,1/IG,150,1,IG;轨道,IG,380,1/IG,IG/2;轨道,IG/2,150,IG,2;道岔,1/3,撇形,3,1;辙叉,3,下撇,null,3/IIG,null,1/3;轨道,3/IIG,50,3,IIG;轨道,IIG,450,3/IIG,IIG/4;轨道,IIG/4,50,IIG,null;辙叉,4,下捺,IIG/4,null,null,2/4;道岔,2/4,捺形,4,2;辙叉,2,上捺,IG/2,2/2DG,2/4,null;轨道,2/2DG,50,2,null;轨道,2DG,150,2/2DG,2DG/0;轨道,2DG/0,50,2DG,null;列车调车信号机,X,上方,1DG,L;列车调车信号机,S,上方,2DG/0,L;调车信号机,D2,下方,IG/2,L;调车信号机,D1,下方,1/IG,R;调车信号机,D4,上方,IIG/4,L;调车信号机,D3,上方,3/IIG,R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准站（未完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道,0/IAG,100,null,IAG;轨道,IAG,100,0/IAG,IAG/5;轨道,IAG/5,50,IAG,5;辙叉,5,上撇,IAG/5,5/5/3,5/7,null;轨道,5/5/3,25,5,5/3/3;轨道,5/3/3,25,5/5/3,3;辙叉,3,下撇,5/3/3,3/3/9,null,1/3;轨道,3/3/9,50,3,3/9/9;轨道,3/9/9,50,3/3/9,9;辙叉,9,上撇,3/9/9,9/15,9/11,null;轨道,9/15,50,9,15;辙叉,15,上捺,9/15,15/15/17,13/15,null;轨道,15/15/17,50,15,15/17/17;道岔,9/11,撇形,11,9;道岔,13/15,捺形,13,15;辙叉,11,下撇,11/13,11/11/21,null,9/11;轨道,11/13,50,13,11;辙叉,13,下捺,7/13/13,11/13,null,13/15;轨道,11/11/21,50,11,11/21/21;轨道,7/13/13,50,7/7/13,13;轨道,7/7/13,50,7,7/13/13;道岔,5/7,撇形,7,5;辙叉,7,下撇,XDG/7,7/7/13,null,5,7;轨道,XDG/7,150,XDG,7;轨道,XDG,165,null,XDG/7;道岔,1/3,撇形,3,1;辙叉,1,上撇,IIAG/1,1/1/19WG,1/3,null;轨道,IIAG/1,50,IIAG,1;轨道,1/1/19WG,50,1,1/19WG;轨道,IIAG,100,0/IIAG,IIAG/1;轨道,0/IIAG,100,null,IIAG;轨道,1/19WG,310,1/1/19WG,1/19WG/19;轨道,11/21/21,50,11/11/21,21;辙叉,21,上撇,11/21/21,21/21/25,21/0,null;道岔,21/021,撇形,021,21;辙叉,021,下撇,null,021/5G,null,21/021;轨道,021/5G,100,021,5G;轨道,5G,400,021/5G,5G/22;轨道,21/21/25,50,21,21/25/25;轨道,21/25/25,50,21/21/25,25;轨道,15/17/17,50,15/15/17,17;辙叉,17,下捺,15/17/17,17/23,null,17/19;道岔,17/19,捺形,17,19;辙叉,19,上捺,1/19WG/19,19/27,17/19,null;轨道,19/27,50,19,27;轨道,1/19WG/19,50,1/19WG,19;轨道,17/23,50,17,23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +185,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,20 +236,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D4D7A4-F8D2-44C0-803B-DC611F462EC5}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -557,16 +592,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -596,10 +631,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -618,8 +653,8 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -636,8 +671,8 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -658,15 +693,15 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
@@ -676,11 +711,11 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -688,82 +723,97 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>

--- a/编码规则.xlsx
+++ b/编码规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maekeour\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3708204-2AF2-48AE-926C-ACFCB0B126C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1BEEBC-B29A-49DC-815B-074522E52E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
+    <workbookView xWindow="2700" yWindow="0" windowWidth="16800" windowHeight="9770" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,11 +123,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标准站（未完成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道,0/IAG,100,null,IAG;轨道,IAG,100,0/IAG,IAG/5;轨道,IAG/5,50,IAG,5;辙叉,5,上撇,IAG/5,5/5/3,5/7,null;轨道,5/5/3,25,5,5/3/3;轨道,5/3/3,25,5/5/3,3;辙叉,3,下撇,5/3/3,3/3/9,null,1/3;轨道,3/3/9,50,3,3/9/9;轨道,3/9/9,50,3/3/9,9;辙叉,9,上撇,3/9/9,9/15,9/11,null;轨道,9/15,50,9,15;辙叉,15,上捺,9/15,15/15/17,13/15,null;轨道,15/15/17,50,15,15/17/17;道岔,9/11,撇形,11,9;道岔,13/15,捺形,13,15;辙叉,11,下撇,11/13,11/11/21,null,9/11;轨道,11/13,50,13,11;辙叉,13,下捺,7/13/13,11/13,null,13/15;轨道,11/11/21,50,11,11/21/21;轨道,7/13/13,50,7/7/13,13;轨道,7/7/13,50,7,7/13/13;道岔,5/7,撇形,7,5;辙叉,7,下撇,XDG/7,7/7/13,null,5,7;轨道,XDG/7,150,XDG,7;轨道,XDG,165,null,XDG/7;道岔,1/3,撇形,3,1;辙叉,1,上撇,IIAG/1,1/1/19WG,1/3,null;轨道,IIAG/1,50,IIAG,1;轨道,1/1/19WG,50,1,1/19WG;轨道,IIAG,100,0/IIAG,IIAG/1;轨道,0/IIAG,100,null,IIAG;轨道,1/19WG,310,1/1/19WG,1/19WG/19;轨道,11/21/21,50,11/11/21,21;辙叉,21,上撇,11/21/21,21/21/25,21/0,null;道岔,21/021,撇形,021,21;辙叉,021,下撇,null,021/5G,null,21/021;轨道,021/5G,100,021,5G;轨道,5G,400,021/5G,5G/22;轨道,21/21/25,50,21,21/25/25;轨道,21/25/25,50,21/21/25,25;轨道,15/17/17,50,15/15/17,17;辙叉,17,下捺,15/17/17,17/23,null,17/19;道岔,17/19,捺形,17,19;辙叉,19,上捺,1/19WG/19,19/27,17/19,null;轨道,19/27,50,19,27;轨道,1/19WG/19,50,1/19WG,19;轨道,17/23,50,17,23</t>
+    <t>标准站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道,0/IAG,100,null,IAG;轨道,IAG,150,0/IAG,IAG/5;轨道,IAG/5,50,IAG,5;辙叉,5,上撇,IAG/5,5/5/3,5/7,null;轨道,5/5/3,25,5,5/3/3;轨道,5/3/3,25,5/5/3,3;辙叉,3,下撇,5/3/3,3/3/9,null,1/3;轨道,3/3/9,50,3,3/9/9;轨道,3/9/9,50,3/3/9,9;辙叉,9,上撇,3/9/9,9/15,9/11,null;轨道,9/15,50,9,15;辙叉,15,上捺,9/15,15/15/17,13/15,null;轨道,15/15/17,50,15,15/17/17;道岔,9/11,撇形,11,9;道岔,13/15,捺形,13,15;辙叉,11,下撇,11/13,11/11/21,null,9/11;轨道,11/13,50,13,11;辙叉,13,下捺,7/13/13,11/13,null,13/15;轨道,11/11/21,50,11,11/21/21;轨道,7/13/13,50,7/7/13,13;轨道,7/7/13,50,7,7/13/13;道岔,5/7,撇形,7,5;辙叉,7,下撇,YXDG/7,7/7/13,null,5,7;轨道,YXDG/7,150,YXDG,7;轨道,YXDG,115,0/YXDG,YXDG/7;轨道,0/YXDG,100,null,YXDG;道岔,1/3,撇形,3,1;辙叉,1,上撇,IIAG/1,1/1/19WG,1/3,null;轨道,IIAG/1,50,IIAG,1;轨道,1/1/19WG,50,1,1/19WG;轨道,IIAG,150,0/IIAG,IIAG/1;轨道,0/IIAG,100,null,IIAG;轨道,1/19WG,310,1/1/19WG,1/19WG/19;轨道,11/21/21,65,11/11/21,21;辙叉,21,上撇,11/21/21,21/21/25,21/0,null;道岔,21/021,撇形,021,21;辙叉,021,下撇,null,021/5G,null,21/021;轨道,021/5G,100,021,5G;轨道,5G,150,021/5G,5G/22;轨道,21/21/25,50,21,21/25/25;轨道,21/25/25,50,21/21/25,25;轨道,15/17/17,50,15/15/17,17;辙叉,17,下捺,15/17/17,17/23,null,17/19;道岔,17/19,捺形,17,19;辙叉,19,上捺,1/19WG/19,19/27,17/19,null;轨道,19/27,50,19,27;轨道,1/19WG/19,50,1/19WG,19;轨道,17/23,50,17,23;辙叉,23,上撇,17/23,23/IG,23/25,null;道岔,23/25,撇形,25,23;辙叉,25,下撇,21/25/25,25/IIIG,null,23/25;轨道,23/IG,50,23,IG;轨道,25/IIIG,50,25,IIIG;辙叉,27,下捺,19/27,27/IIG,null,27/027;道岔,27/027,捺形,27,027;辙叉,027,上捺,null,027/4G,27/027,null;轨道,27/IIG,115,27,IIG;轨道,027/4G,50,027,4G;轨道,IIG,300,27/2G,IIG/14;轨道,4G,300,021/4G,4G/014;轨道,IG,465,23/1G,IG/16;轨道,IIIG,300,25/IIIG,IIIG/18;轨道,5G/22,100,5G,22;轨道,IIIG/18,100,IIIG,18;轨道,IG/16,100,IG,16;轨道,IIG/14,135,IIG,14;轨道,4G/014,70,4G,014;辙叉,22,上捺,5G/22,22/20/22,022/22,null;道岔,022/22,捺形,022,22;轨道,22/20/22,20,22,20/22/20;轨道,20/22/20,50,22/20/22,20;辙叉,20,下捺,20/22/20,20/2/20WG,null,18/20;轨道,20/2/20WG,100,20,2/20WG;辙叉,022,下捺,D18G/022,null,null,022/22;轨道,D18G/022,50,D18G,022;轨道,D18G,50,0/D18G,D18G/022;道岔,18/20,捺形,20,18;辙叉,18,上捺,IIIG/18,18/016,18/20,null;轨道,18/016,20,18,016;辙叉,016,下捺,18/016,null,null,016/16;道岔,016/16,捺形,016,16;辙叉,16,上捺,IG/16,16/8/16,016/16,null;轨道,16/8/16,50,16,8/16/8;辙叉,014,上撇,4G/014,null,14/014,null;道岔,14/014,撇形,14,014;辙叉,14,下撇,IIG/14,14/12/14,null,14/014;轨道,14/12/14,50,14,12/14/12;轨道,8/16/8,50,16/8/16,8;轨道,12/14/12,50,14/12/14,12;辙叉,8,下捺,8/16/8,8/10,null,6/8;辙叉,12,上撇,12/14/12,6/12,10/12,null;轨道,8/10,50,8,10;轨道,6/12,50,12,6;道岔,6/8,捺形,8,6;道岔,10/12,撇形,10,12;辙叉,10,下撇,8/10,10/4/10,null,10/12;辙叉,6,上捺,6/12,6/IIBG,6/8,null;轨道,10/4/10,50,10,4/10/4;轨道,6/IIBG,50,6,IIBG;轨道,4/10/4,20,10/4/10,4;辙叉,4,上撇,4/10/4,IBG,2/4,null;轨道,IBG,200,4,IBG/0;轨道,IIBG,235,6/IIBG,IIBG/0;轨道,2/20WG,360,20/2/20WG,2/20WG/2;轨道,0/D18G,50,null,D18G;道岔,2/4/4,撇形,0/4,4;辙叉,0/4,下撇,null,2/0,null,2/4/4;辙叉,2/0,上撇,0/4,null,2/2/4,null;道岔,2/2/4,撇形,2,2/0;辙叉,2,下撇,2/20WG/2,2/D2G,null,2/2/4;轨道,2/D2G,50,2,D2G;轨道,2/20WG/2,100,2/20WG,2;轨道,IBG/0,155,IBG,null;轨道,IIBG/0,155,IIBG,null;轨道,D2G,110,2/D2G,D2G/0;轨道,D2G/0,50,D2G,null;调车信号机,D1,上方,IIAG/1,L;调车信号机,D15,上方,1/19WG/19,L;列车调车信号机,S5,下方,021/5G,R;调车信号机,D13,上方,15/17/17,L;调车信号机,D9,上方,3/9/9,L;调车信号机,D11,上方,7/13/13,L;调车信号机,D3,上方,IAG/5,L;调车信号机,D5,下方,1/1/19WG,R;调车信号机,D7,下方,3/3/9,R;列车调车信号机,XD,上方,YXDG/7,L;列车调车信号机,X,上方,IAG,L;列车调车信号机,XF,下方,IIAG,L;列车调车信号机,X5,上方,5G/22,L;列车调车信号机,SIII,下方,25/IIIG,R;列车调车信号机,SI,下方,23/IG,R;列车调车信号机,SII,下方,27/IIG,R;列车调车信号机,S4,下方,027/4G,R;调车信号机,D16,下方,22/20/22,R;列车调车信号机,XIII,上方,IIIG/18,L;列车调车信号机,XI,上方,IG/16,L;列车调车信号机,XII,上方,IIG/14,L;列车调车信号机,X4,上方,4G/014,L;调车信号机,D10,上方,8/16/8,L;调车信号机,D12,上方,14/12/14,R;调车信号机,D18,上方,D18G/022,L;调车信号机,D14,下方,20/2/20WG,R;调车信号机,D4,上方,2/20WG/2,L;调车信号机,D8,下方,10/4/10,R;调车信号机,D6,下方,6/IIBG,R;调车信号机,D2,下方,2/D2G,R;列车调车信号机,SF,上方,IBG,R;列车调车信号机,S,下方,IIBG,R;列车信号机,YXD,上方,YXDG,L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,20 +181,35 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -223,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,32 +251,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D4D7A4-F8D2-44C0-803B-DC611F462EC5}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -592,16 +604,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -631,10 +643,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -653,8 +665,8 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,8 +683,8 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -693,15 +705,15 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
@@ -711,11 +723,11 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -723,93 +735,93 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="330.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/编码规则.xlsx
+++ b/编码规则.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maekeour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\CI\RailwayCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1BEEBC-B29A-49DC-815B-074522E52E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EB1694-F9DE-4A36-950D-E49A5F84B363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="0" windowWidth="16800" windowHeight="9770" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{5F126E63-26A2-40AC-B0F9-FCBDFA3FC704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,95 +39,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>列车信号机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调车信号机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列车调车信号机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状（撇形/捺形）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状（朝上/朝下的撇形/捺形）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置（位于轨道上方/下方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联的轨道名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置（关联轨道的左侧/右侧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一项不填写时置空或填写null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡线</t>
+  </si>
+  <si>
     <t>道岔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辙叉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列车信号机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调车信号机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列车调车信号机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状（撇形/捺形）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状（朝上/朝下的撇形/捺形）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置（位于轨道上方/下方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联的轨道名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置（关联轨道的左侧/右侧）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某一项不填写时置空或填写null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道,0/1G,50,null,1G;轨道,1G,150,0/1G,1G/1;轨道,1G/1,50,1G,1;辙叉,1,上撇,1G,2G,1/3,null;轨道,1/2G,50,1,2G;轨道,2G,280,1/2G,2G/0;轨道,2G/0,50,2G,null;道岔,1/3,撇形,1,3;辙叉,3,下撇,null,3/3G,null,1/3;轨道,3/3G,50,3,3G;轨道,3G,150,3/3G,3G/0;轨道,3G/0,50,3G,null;调车信号机,D1,上方,1G,L;调车信号机,D2,上方,2G,R;调车信号机,D3,上方,3G,R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道,1DG,50,null,1G;轨道,1G,150,1DG,1;辙叉,1,上撇,1G,2G,1/3,null;轨道,2G,280,1,7G;轨道,7G,50,2G,null;道岔,1/3,撇形,1,3;辙叉,3,下撇,4G,3G,null,1/3;轨道,3G,150,3,6G;轨道,4G,280,5G,3;轨道,5G,50,null,4G;轨道,6G,50,3G,null;列车调车信号机,X,上方,1G,L;列车信号机,S,上方,4G,L;列车调车信号机,D1,上方,3G,R;调车信号机,D2,上方,2G,R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道,0/1DG,50,null,1DG;轨道,1DG,150,0/1DG,1DG/1;轨道,1DG/1,50,1DG,1;辙叉,1,上撇,1DG/1,1/IG,1/3,null;轨道,1/IG,150,1,IG;轨道,IG,380,1/IG,IG/2;轨道,IG/2,150,IG,2;道岔,1/3,撇形,3,1;辙叉,3,下撇,null,3/IIG,null,1/3;轨道,3/IIG,50,3,IIG;轨道,IIG,450,3/IIG,IIG/4;轨道,IIG/4,50,IIG,null;辙叉,4,下捺,IIG/4,null,null,2/4;道岔,2/4,捺形,4,2;辙叉,2,上捺,IG/2,2/2DG,2/4,null;轨道,2/2DG,50,2,null;轨道,2DG,150,2/2DG,2DG/0;轨道,2DG/0,50,2DG,null;列车调车信号机,X,上方,1DG,L;列车调车信号机,S,上方,2DG/0,L;调车信号机,D2,下方,IG/2,L;调车信号机,D1,下方,1/IG,R;调车信号机,D4,上方,IIG/4,L;调车信号机,D3,上方,3/IIG,R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨道,0/IAG,100,null,IAG;轨道,IAG,150,0/IAG,IAG/5;轨道,IAG/5,50,IAG,5;辙叉,5,上撇,IAG/5,5/5/3,5/7,null;轨道,5/5/3,25,5,5/3/3;轨道,5/3/3,25,5/5/3,3;辙叉,3,下撇,5/3/3,3/3/9,null,1/3;轨道,3/3/9,50,3,3/9/9;轨道,3/9/9,50,3/3/9,9;辙叉,9,上撇,3/9/9,9/15,9/11,null;轨道,9/15,50,9,15;辙叉,15,上捺,9/15,15/15/17,13/15,null;轨道,15/15/17,50,15,15/17/17;道岔,9/11,撇形,11,9;道岔,13/15,捺形,13,15;辙叉,11,下撇,11/13,11/11/21,null,9/11;轨道,11/13,50,13,11;辙叉,13,下捺,7/13/13,11/13,null,13/15;轨道,11/11/21,50,11,11/21/21;轨道,7/13/13,50,7/7/13,13;轨道,7/7/13,50,7,7/13/13;道岔,5/7,撇形,7,5;辙叉,7,下撇,YXDG/7,7/7/13,null,5,7;轨道,YXDG/7,150,YXDG,7;轨道,YXDG,115,0/YXDG,YXDG/7;轨道,0/YXDG,100,null,YXDG;道岔,1/3,撇形,3,1;辙叉,1,上撇,IIAG/1,1/1/19WG,1/3,null;轨道,IIAG/1,50,IIAG,1;轨道,1/1/19WG,50,1,1/19WG;轨道,IIAG,150,0/IIAG,IIAG/1;轨道,0/IIAG,100,null,IIAG;轨道,1/19WG,310,1/1/19WG,1/19WG/19;轨道,11/21/21,65,11/11/21,21;辙叉,21,上撇,11/21/21,21/21/25,21/0,null;道岔,21/021,撇形,021,21;辙叉,021,下撇,null,021/5G,null,21/021;轨道,021/5G,100,021,5G;轨道,5G,150,021/5G,5G/22;轨道,21/21/25,50,21,21/25/25;轨道,21/25/25,50,21/21/25,25;轨道,15/17/17,50,15/15/17,17;辙叉,17,下捺,15/17/17,17/23,null,17/19;道岔,17/19,捺形,17,19;辙叉,19,上捺,1/19WG/19,19/27,17/19,null;轨道,19/27,50,19,27;轨道,1/19WG/19,50,1/19WG,19;轨道,17/23,50,17,23;辙叉,23,上撇,17/23,23/IG,23/25,null;道岔,23/25,撇形,25,23;辙叉,25,下撇,21/25/25,25/IIIG,null,23/25;轨道,23/IG,50,23,IG;轨道,25/IIIG,50,25,IIIG;辙叉,27,下捺,19/27,27/IIG,null,27/027;道岔,27/027,捺形,27,027;辙叉,027,上捺,null,027/4G,27/027,null;轨道,27/IIG,115,27,IIG;轨道,027/4G,50,027,4G;轨道,IIG,300,27/2G,IIG/14;轨道,4G,300,021/4G,4G/014;轨道,IG,465,23/1G,IG/16;轨道,IIIG,300,25/IIIG,IIIG/18;轨道,5G/22,100,5G,22;轨道,IIIG/18,100,IIIG,18;轨道,IG/16,100,IG,16;轨道,IIG/14,135,IIG,14;轨道,4G/014,70,4G,014;辙叉,22,上捺,5G/22,22/20/22,022/22,null;道岔,022/22,捺形,022,22;轨道,22/20/22,20,22,20/22/20;轨道,20/22/20,50,22/20/22,20;辙叉,20,下捺,20/22/20,20/2/20WG,null,18/20;轨道,20/2/20WG,100,20,2/20WG;辙叉,022,下捺,D18G/022,null,null,022/22;轨道,D18G/022,50,D18G,022;轨道,D18G,50,0/D18G,D18G/022;道岔,18/20,捺形,20,18;辙叉,18,上捺,IIIG/18,18/016,18/20,null;轨道,18/016,20,18,016;辙叉,016,下捺,18/016,null,null,016/16;道岔,016/16,捺形,016,16;辙叉,16,上捺,IG/16,16/8/16,016/16,null;轨道,16/8/16,50,16,8/16/8;辙叉,014,上撇,4G/014,null,14/014,null;道岔,14/014,撇形,14,014;辙叉,14,下撇,IIG/14,14/12/14,null,14/014;轨道,14/12/14,50,14,12/14/12;轨道,8/16/8,50,16/8/16,8;轨道,12/14/12,50,14/12/14,12;辙叉,8,下捺,8/16/8,8/10,null,6/8;辙叉,12,上撇,12/14/12,6/12,10/12,null;轨道,8/10,50,8,10;轨道,6/12,50,12,6;道岔,6/8,捺形,8,6;道岔,10/12,撇形,10,12;辙叉,10,下撇,8/10,10/4/10,null,10/12;辙叉,6,上捺,6/12,6/IIBG,6/8,null;轨道,10/4/10,50,10,4/10/4;轨道,6/IIBG,50,6,IIBG;轨道,4/10/4,20,10/4/10,4;辙叉,4,上撇,4/10/4,IBG,2/4,null;轨道,IBG,200,4,IBG/0;轨道,IIBG,235,6/IIBG,IIBG/0;轨道,2/20WG,360,20/2/20WG,2/20WG/2;轨道,0/D18G,50,null,D18G;道岔,2/4/4,撇形,0/4,4;辙叉,0/4,下撇,null,2/0,null,2/4/4;辙叉,2/0,上撇,0/4,null,2/2/4,null;道岔,2/2/4,撇形,2,2/0;辙叉,2,下撇,2/20WG/2,2/D2G,null,2/2/4;轨道,2/D2G,50,2,D2G;轨道,2/20WG/2,100,2/20WG,2;轨道,IBG/0,155,IBG,null;轨道,IIBG/0,155,IIBG,null;轨道,D2G,110,2/D2G,D2G/0;轨道,D2G/0,50,D2G,null;调车信号机,D1,上方,IIAG/1,L;调车信号机,D15,上方,1/19WG/19,L;列车调车信号机,S5,下方,021/5G,R;调车信号机,D13,上方,15/17/17,L;调车信号机,D9,上方,3/9/9,L;调车信号机,D11,上方,7/13/13,L;调车信号机,D3,上方,IAG/5,L;调车信号机,D5,下方,1/1/19WG,R;调车信号机,D7,下方,3/3/9,R;列车调车信号机,XD,上方,YXDG/7,L;列车调车信号机,X,上方,IAG,L;列车调车信号机,XF,下方,IIAG,L;列车调车信号机,X5,上方,5G/22,L;列车调车信号机,SIII,下方,25/IIIG,R;列车调车信号机,SI,下方,23/IG,R;列车调车信号机,SII,下方,27/IIG,R;列车调车信号机,S4,下方,027/4G,R;调车信号机,D16,下方,22/20/22,R;列车调车信号机,XIII,上方,IIIG/18,L;列车调车信号机,XI,上方,IG/16,L;列车调车信号机,XII,上方,IIG/14,L;列车调车信号机,X4,上方,4G/014,L;调车信号机,D10,上方,8/16/8,L;调车信号机,D12,上方,14/12/14,R;调车信号机,D18,上方,D18G/022,L;调车信号机,D14,下方,20/2/20WG,R;调车信号机,D4,上方,2/20WG/2,L;调车信号机,D8,下方,10/4/10,R;调车信号机,D6,下方,6/IIBG,R;调车信号机,D2,下方,2/D2G,R;列车调车信号机,SF,上方,IBG,R;列车调车信号机,S,下方,IIBG,R;列车信号机,YXD,上方,YXDG,L</t>
+  </si>
+  <si>
+    <t>轨道,0/1G,50,null,1G;轨道,1G,150,0/1G,1G/1;轨道,1G/1,50,1G,1;道岔,1,上撇,1G,2G,1/3,null;轨道,1/2G,50,1,2G;轨道,2G,280,1/2G,2G/0;轨道,2G/0,50,2G,null;渡线,1/3,撇形,1,3;道岔,3,下撇,null,3/3G,null,1/3;轨道,3/3G,50,3,3G;轨道,3G,150,3/3G,3G/0;轨道,3G/0,50,3G,null;调车信号机,D1,上方,1G,L;调车信号机,D2,上方,2G,R;调车信号机,D3,上方,3G,R</t>
+  </si>
+  <si>
+    <t>轨道,0/1DG,50,null,1DG;轨道,1DG,150,0/1DG,1DG/1;轨道,1DG/1,50,1DG,1;道岔,1,上撇,1DG/1,1/IG,1/3,null;轨道,1/IG,150,1,IG;轨道,IG,380,1/IG,IG/2;轨道,IG/2,150,IG,2;渡线,1/3,撇形,3,1;道岔,3,下撇,null,3/IIG,null,1/3;轨道,3/IIG,50,3,IIG;轨道,IIG,450,3/IIG,IIG/4;轨道,IIG/4,50,IIG,null;道岔,4,下捺,IIG/4,null,null,2/4;渡线,2/4,捺形,4,2;道岔,2,上捺,IG/2,2/2DG,2/4,null;轨道,2/2DG,50,2,null;轨道,2DG,150,2/2DG,2DG/0;轨道,2DG/0,50,2DG,null;列车调车信号机,X,上方,1DG,L;列车调车信号机,S,上方,2DG/0,L;调车信号机,D2,下方,IG/2,L;调车信号机,D1,下方,1/IG,R;调车信号机,D4,上方,IIG/4,L;调车信号机,D3,上方,3/IIG,R</t>
+  </si>
+  <si>
+    <t>轨道,1DG,50,null,1G;轨道,1G,150,1DG,1;道岔,1,上撇,1G,2G,1/3,null;轨道,2G,280,1,7G;轨道,7G,50,2G,null;渡线,1/3,撇形,1,3;道岔,3,下撇,4G,3G,null,1/3;轨道,3G,150,3,6G;轨道,4G,280,5G,3;轨道,5G,50,null,4G;轨道,6G,50,3G,null;列车调车信号机,X,上方,1G,L;列车信号机,S,上方,4G,L;列车调车信号机,D1,上方,3G,R;调车信号机,D2,上方,2G,R</t>
+  </si>
+  <si>
+    <t>轨道,0/IAG,100,null,IAG;轨道,IAG,150,0/IAG,IAG/5;轨道,IAG/5,50,IAG,5;道岔,5,上撇,IAG/5,5/5/3,5/7,null;轨道,5/5/3,25,5,5/3/3;轨道,5/3/3,25,5/5/3,3;道岔,3,下撇,5/3/3,3/3/9,null,1/3;轨道,3/3/9,50,3,3/9/9;轨道,3/9/9,50,3/3/9,9;道岔,9,上撇,3/9/9,9/15,9/11,null;轨道,9/15,50,9,15;道岔,15,上捺,9/15,15/15/17,13/15,null;轨道,15/15/17,50,15,15/17/17;渡线,9/11,撇形,11,9;渡线,13/15,捺形,13,15;道岔,11,下撇,11/13,11/11/21,null,9/11;轨道,11/13,50,13,11;道岔,13,下捺,7/13/13,11/13,null,13/15;轨道,11/11/21,50,11,11/21/21;轨道,7/13/13,50,7/7/13,13;轨道,7/7/13,50,7,7/13/13;渡线,5/7,撇形,7,5;道岔,7,下撇,YXDG/7,7/7/13,null,5,7;轨道,YXDG/7,150,YXDG,7;轨道,YXDG,115,0/YXDG,YXDG/7;轨道,0/YXDG,100,null,YXDG;渡线,1/3,撇形,3,1;道岔,1,上撇,IIAG/1,1/1/19WG,1/3,null;轨道,IIAG/1,50,IIAG,1;轨道,1/1/19WG,50,1,1/19WG;轨道,IIAG,150,0/IIAG,IIAG/1;轨道,0/IIAG,100,null,IIAG;轨道,1/19WG,310,1/1/19WG,1/19WG/19;轨道,11/21/21,65,11/11/21,21;道岔,21,上撇,11/21/21,21/21/25,21/0,null;渡线,21/021,撇形,021,21;道岔,021,下撇,null,021/5G,null,21/021;轨道,021/5G,100,021,5G;轨道,5G,150,021/5G,5G/22;轨道,21/21/25,50,21,21/25/25;轨道,21/25/25,50,21/21/25,25;轨道,15/17/17,50,15/15/17,17;道岔,17,下捺,15/17/17,17/23,null,17/19;渡线,17/19,捺形,17,19;道岔,19,上捺,1/19WG/19,19/27,17/19,null;轨道,19/27,50,19,27;轨道,1/19WG/19,50,1/19WG,19;轨道,17/23,50,17,23;道岔,23,上撇,17/23,23/IG,23/25,null;渡线,23/25,撇形,25,23;道岔,25,下撇,21/25/25,25/IIIG,null,23/25;轨道,23/IG,50,23,IG;轨道,25/IIIG,50,25,IIIG;道岔,27,下捺,19/27,27/IIG,null,27/027;渡线,27/027,捺形,27,027;道岔,027,上捺,null,027/4G,27/027,null;轨道,27/IIG,115,27,IIG;轨道,027/4G,50,027,4G;轨道,IIG,300,27/2G,IIG/14;轨道,4G,300,021/4G,4G/014;轨道,IG,465,23/1G,IG/16;轨道,IIIG,300,25/IIIG,IIIG/18;轨道,5G/22,100,5G,22;轨道,IIIG/18,100,IIIG,18;轨道,IG/16,100,IG,16;轨道,IIG/14,135,IIG,14;轨道,4G/014,70,4G,014;道岔,22,上捺,5G/22,22/20/22,022/22,null;渡线,022/22,捺形,022,22;轨道,22/20/22,20,22,20/22/20;轨道,20/22/20,50,22/20/22,20;道岔,20,下捺,20/22/20,20/2/20WG,null,18/20;轨道,20/2/20WG,100,20,2/20WG;道岔,022,下捺,D18G/022,null,null,022/22;轨道,D18G/022,50,D18G,022;轨道,D18G,50,0/D18G,D18G/022;渡线,18/20,捺形,20,18;道岔,18,上捺,IIIG/18,18/016,18/20,null;轨道,18/016,20,18,016;道岔,016,下捺,18/016,null,null,016/16;渡线,016/16,捺形,016,16;道岔,16,上捺,IG/16,16/8/16,016/16,null;轨道,16/8/16,50,16,8/16/8;道岔,014,上撇,4G/014,null,14/014,null;渡线,14/014,撇形,14,014;道岔,14,下撇,IIG/14,14/12/14,null,14/014;轨道,14/12/14,50,14,12/14/12;轨道,8/16/8,50,16/8/16,8;轨道,12/14/12,50,14/12/14,12;道岔,8,下捺,8/16/8,8/10,null,6/8;道岔,12,上撇,12/14/12,6/12,10/12,null;轨道,8/10,50,8,10;轨道,6/12,50,12,6;渡线,6/8,捺形,8,6;渡线,10/12,撇形,10,12;道岔,10,下撇,8/10,10/4/10,null,10/12;道岔,6,上捺,6/12,6/IIBG,6/8,null;轨道,10/4/10,50,10,4/10/4;轨道,6/IIBG,50,6,IIBG;轨道,4/10/4,20,10/4/10,4;道岔,4,上撇,4/10/4,IBG,2/4,null;轨道,IBG,200,4,IBG/0;轨道,IIBG,235,6/IIBG,IIBG/0;轨道,2/20WG,360,20/2/20WG,2/20WG/2;轨道,0/D18G,50,null,D18G;渡线,2/4/4,撇形,0/4,4;道岔,0/4,下撇,null,2/0,null,2/4/4;道岔,2/0,上撇,0/4,null,2/2/4,null;渡线,2/2/4,撇形,2,2/0;道岔,2,下撇,2/20WG/2,2/D2G,null,2/2/4;轨道,2/D2G,50,2,D2G;轨道,2/20WG/2,100,2/20WG,2;轨道,IBG/0,155,IBG,null;轨道,IIBG/0,155,IIBG,null;轨道,D2G,110,2/D2G,D2G/0;轨道,D2G/0,50,D2G,null;调车信号机,D1,上方,IIAG/1,L;调车信号机,D15,上方,1/19WG/19,L;列车调车信号机,S5,下方,021/5G,R;调车信号机,D13,上方,15/17/17,L;调车信号机,D9,上方,3/9/9,L;调车信号机,D11,上方,7/13/13,L;调车信号机,D3,上方,IAG/5,L;调车信号机,D5,下方,1/1/19WG,R;调车信号机,D7,下方,3/3/9,R;列车调车信号机,XD,上方,YXDG/7,L;列车调车信号机,X,上方,IAG,L;列车调车信号机,XF,下方,IIAG,L;列车调车信号机,X5,上方,5G/22,L;列车调车信号机,SIII,下方,25/IIIG,R;列车调车信号机,SI,下方,23/IG,R;列车调车信号机,SII,下方,27/IIG,R;列车调车信号机,S4,下方,027/4G,R;调车信号机,D16,下方,22/20/22,R;列车调车信号机,XIII,上方,IIIG/18,L;列车调车信号机,XI,上方,IG/16,L;列车调车信号机,XII,上方,IIG/14,L;列车调车信号机,X4,上方,4G/014,L;调车信号机,D10,上方,8/16/8,L;调车信号机,D12,上方,14/12/14,R;调车信号机,D18,上方,D18G/022,L;调车信号机,D14,下方,20/2/20WG,R;调车信号机,D4,上方,2/20WG/2,L;调车信号机,D8,下方,10/4/10,R;调车信号机,D6,下方,6/IIBG,R;调车信号机,D2,下方,2/D2G,R;列车调车信号机,SF,上方,IBG,R;列车调车信号机,S,下方,IIBG,R;列车信号机,YXD,上方,YXDG,L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D4D7A4-F8D2-44C0-803B-DC611F462EC5}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
@@ -647,81 +642,81 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -733,7 +728,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -745,7 +740,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -757,7 +752,7 @@
     </row>
     <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -772,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -800,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -811,7 +806,7 @@
     </row>
     <row r="16" spans="1:8" ht="330.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>25</v>
